--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>power_line</t>
+          <t>Power_line</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>hydrogen_pipeline</t>
+          <t>Hydrogen_pipeline</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pipeline</t>
+          <t>Methanol_pipeline</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pipeline</t>
+          <t>Heat_pipeline</t>
         </is>
       </c>
     </row>

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object_Mapping" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Object_Mapping" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Object_Mapping" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object_Mapping" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Object_Mapping" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object_Mapping" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Electrolyzer_PEM</t>
+          <t>PEM_Electrolyzer</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Methanol_Plant</t>
+          <t>Destilation_tower</t>
         </is>
       </c>
     </row>

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Solar_Plant_Kasso</t>
+          <t>Solar_Plant</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -520,70 +520,82 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>Wind_Farm</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Power_line</t>
+          <t>Wind_farm</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hydrogen_pipeline</t>
+          <t>Power_line</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Methanol_pipeline</t>
+          <t>Hydrogen_pipeline</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pipeline_District_Heating</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Heat_pipeline</t>
+          <t>Methanol_pipeline</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>pipeline_District_Heating</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hydrogen_storage</t>
+          <t>Heat_pipeline</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Hydrogen_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hydrogen_storage</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Methanol_storage</t>
         </is>

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Object_Name</t>
+          <t>Object_name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,82 +520,70 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wind_Farm</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wind_farm</t>
+          <t>Power_line</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Power_line</t>
+          <t>Hydrogen_pipeline</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hydrogen_pipeline</t>
+          <t>Methanol_pipeline</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_District_Heating</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Methanol_pipeline</t>
+          <t>Heat_pipeline</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pipeline_District_Heating</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Heat_pipeline</t>
+          <t>Hydrogen_storage</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>Hydrogen_storage</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>E-Methanol_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
         <is>
           <t>Methanol_storage</t>
         </is>

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,70 +520,82 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>Wind_onshore</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Power_line</t>
+          <t>Wind_onshore</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hydrogen_pipeline</t>
+          <t>Power_line</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Methanol_pipeline</t>
+          <t>Hydrogen_pipeline</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pipeline_District_Heating</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Heat_pipeline</t>
+          <t>Methanol_pipeline</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>pipeline_District_Heating</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hydrogen_storage</t>
+          <t>Heat_pipeline</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Hydrogen_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hydrogen_storage</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Methanol_storage</t>
         </is>

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Object_Mapping" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Object_Mapping" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,82 +520,70 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wind_onshore</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wind_onshore</t>
+          <t>Power_line</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Power_line</t>
+          <t>Hydrogen_pipeline</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hydrogen_pipeline</t>
+          <t>Methanol_pipeline</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_District_Heating</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Methanol_pipeline</t>
+          <t>Heat_pipeline</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pipeline_District_Heating</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Heat_pipeline</t>
+          <t>Hydrogen_storage</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>Hydrogen_storage</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>E-Methanol_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
         <is>
           <t>Methanol_storage</t>
         </is>

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,70 +520,58 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Power_line</t>
+          <t>Hydrogen_pipeline</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hydrogen_pipeline</t>
+          <t>Methanol_pipeline</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_District_Heating</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Methanol_pipeline</t>
+          <t>Heat_pipeline</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pipeline_District_Heating</t>
+          <t>Hydrogen_storage_Kasso</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Heat_pipeline</t>
+          <t>Hydrogen_storage</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>Hydrogen_storage</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>E-Methanol_storage_Kasso</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
         <is>
           <t>Methanol_storage</t>
         </is>

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,58 +520,70 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>power_line_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hydrogen_pipeline</t>
+          <t>Power_line</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>pipeline_storage_hydrogen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Methanol_pipeline</t>
+          <t>Hydrogen_pipeline</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pipeline_District_Heating</t>
+          <t>pipeline_storage_e-methanol</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heat_pipeline</t>
+          <t>Methanol_pipeline</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>pipeline_District_Heating</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hydrogen_storage</t>
+          <t>Heat_pipeline</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Hydrogen_storage_Kasso</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hydrogen_storage</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>E-Methanol_storage_Kasso</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Methanol_storage</t>
         </is>

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -484,12 +484,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Destilation_Tower</t>
+          <t>Distillation_Tower</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Destilation_tower</t>
+          <t>Distillation_tower</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>power_line_Wholesale_Kasso</t>
+          <t>PL_Wholesale_Kasso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pipeline_storage_hydrogen</t>
+          <t>PL_storage_hydrogen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pipeline_storage_e-methanol</t>
+          <t>PL_storage_e-methanol</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pipeline_District_Heating</t>
+          <t>PL_District_Heating</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen_storage_Kasso</t>
+          <t>Hydrogen_storage</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E-Methanol_storage_Kasso</t>
+          <t>E-Methanol_storage</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PL_Wholesale_Kasso</t>
+          <t>PL_Wholesale</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Solar_Plant</t>
+          <t>solar_plant</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Methanol_Reactor</t>
+          <t>ch3oh_reactor</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Steam_Plant</t>
+          <t>steam_plant</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PL_Wholesale</t>
+          <t>pl_wholesale</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PL_storage_hydrogen</t>
+          <t>pl_st_h2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PL_storage_e-methanol</t>
+          <t>pl_st_ch4o</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PL_District_Heating</t>
+          <t>pl_dh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen_storage</t>
+          <t>h2_st</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E-Methanol_storage</t>
+          <t>ch3oh_st</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">

--- a/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
+++ b/Spine_Projects/01_input_data/02_input_prepared/methanol_object_mapping.xlsx
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Electrolyzer</t>
+          <t>electrolyzer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CO2_Vaporizer</t>
+          <t>co2_vaporizer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Distillation_Tower</t>
+          <t>dist_tower</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pl_st_h2</t>
+          <t>pl_h2_st</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pl_st_ch4o</t>
+          <t>pl_ch3oh_st</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
